--- a/doc/PartsList.xlsx
+++ b/doc/PartsList.xlsx
@@ -90,7 +90,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -230,25 +230,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -256,6 +241,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,20 +562,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F18"/>
+      <selection activeCell="H1" sqref="H1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="29" style="15" customWidth="1"/>
+    <col min="3" max="3" width="29" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,11 +583,14 @@
       <c r="C1" s="4">
         <v>60</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="13">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -592,11 +598,14 @@
       <c r="C2" s="7">
         <v>20</v>
       </c>
-      <c r="F2" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="12">
+        <v>20</v>
+      </c>
+      <c r="H2" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -604,17 +613,21 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -624,11 +637,14 @@
       <c r="C5" s="7">
         <v>27</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="12">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -636,57 +652,72 @@
       <c r="C6" s="7">
         <v>20</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="H6" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="16">
         <v>15</v>
       </c>
-      <c r="F7" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="F7" s="12">
+        <v>20</v>
+      </c>
+      <c r="H7" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="F8" s="17">
+      <c r="C8" s="19"/>
+      <c r="F8" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="H8" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="14"/>
-      <c r="F9" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="17"/>
+      <c r="F9" s="12">
+        <v>20</v>
+      </c>
+      <c r="H9" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="7">
         <v>20</v>
       </c>
-      <c r="F10" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="12">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -696,11 +727,14 @@
       <c r="C11" s="7">
         <v>20</v>
       </c>
-      <c r="F11" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="12">
+        <v>20</v>
+      </c>
+      <c r="H11" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -708,11 +742,14 @@
       <c r="C12" s="7">
         <v>20</v>
       </c>
-      <c r="F12" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="12">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -720,11 +757,14 @@
       <c r="C13" s="7">
         <v>20</v>
       </c>
-      <c r="F13" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="12">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -732,31 +772,38 @@
       <c r="C14" s="7">
         <v>10</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="H14" s="12">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="16">
         <v>3</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="H15" s="3">
+        <f>SUM(H1:H14)</f>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="F16" s="17">
+      <c r="C16" s="17"/>
+      <c r="F16" s="12">
         <v>3</v>
       </c>
     </row>
@@ -768,7 +815,7 @@
       <c r="C17" s="7">
         <v>50</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="12">
         <v>30</v>
       </c>
     </row>
@@ -789,7 +836,7 @@
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="7">
@@ -797,7 +844,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="15">
+      <c r="C20" s="10">
         <f>SUM(C1:C19)</f>
         <v>319</v>
       </c>
